--- a/participants/participant_36/participant_36_task_orders.xlsx
+++ b/participants/participant_36/participant_36_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498731125760274" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731145183465" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731145193133" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731145663111" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731146293113" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650291249263069" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912516043196" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912516073222" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912516823235" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912517773306" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498731125389786.csv</t>
+          <t>go_stims-1650291249207066.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731125590124.csv</t>
+          <t>GNG_stims-16502912492330682.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-164987311256.csv</t>
+          <t>go_stims-16502912492340732.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731125750117.csv</t>
+          <t>GNG_stims-16502912492620704.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1649873113853226.csv</t>
+          <t>ZB-match_4-16502912496149418.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_1-1649873112830222.csv</t>
+          <t>TB-1650291251335322.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16498731132741897.csv</t>
+          <t>OB-165029125122132.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1649873114199221.csv</t>
+          <t>OB-16502912499540627.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_9-16498731126729772.csv</t>
+          <t>ZB-match_6-16502912496529353.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16498731130972219.csv</t>
+          <t>TB-16502912515783215.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16498731144933462.csv</t>
+          <t>TB-16502912514393523.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1649873113363189.csv</t>
+          <t>ZB-match_1-16502912496869433.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_2-16498731126560159.csv</t>
+          <t>OB-16502912508183222.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873114533311.csv</t>
+          <t>MM_stims-1650291251636384.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731145213132.csv</t>
+          <t>ZM_stims-16502912516103272.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1649873114549311.csv</t>
+          <t>MM_stims-16502912516663554.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731145343118.csv</t>
+          <t>ZM_stims-16502912516383367.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731145653114.csv</t>
+          <t>MM_stims-16502912516813226.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731145503113.csv</t>
+          <t>ZM_stims-16502912516673226.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873114597311.csv</t>
+          <t>vSAT_stims-16502912517293212.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731145813112.csv</t>
+          <t>vSAT_stims-16502912517623222.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731145693111.csv</t>
+          <t>SAT_stims-16502912517133224.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873114613312.csv</t>
+          <t>SAT_stims-16502912516883223.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_36/participant_36_task_orders.xlsx
+++ b/participants/participant_36/participant_36_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650291249263069" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912516043196" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912516073222" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912516823235" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912517773306" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778668283727" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778686756663" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778686816652" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778687406635" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778688016996" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650291249207066.csv</t>
+          <t>go_stims-16504778667873728.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912492330682.csv</t>
+          <t>GNG_stims-1650477866811456.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912492340732.csv</t>
+          <t>go_stims-16504778668133724.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912492620704.csv</t>
+          <t>GNG_stims-16504778668273969.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_4-16502912496149418.csv</t>
+          <t>TB-1650477868305665.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-1650291251335322.csv</t>
+          <t>ZB-match_7-16504778672984045.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-165029125122132.csv</t>
+          <t>ZB-match_0-16504778672113698.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16502912499540627.csv</t>
+          <t>OB-16504778673300564.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502912496529353.csv</t>
+          <t>TB-16504778686586974.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16502912515783215.csv</t>
+          <t>ZB-match_5-16504778669234076.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16502912514393523.csv</t>
+          <t>OB-16504778675333512.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_1-16502912496869433.csv</t>
+          <t>TB-1650477868121696.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16502912508183222.csv</t>
+          <t>OB-16504778680686617.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650291251636384.csv</t>
+          <t>MM_stims-16504778687076976.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912516103272.csv</t>
+          <t>ZM_stims-1650477868684666.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912516663554.csv</t>
+          <t>MM_stims-16504778687236981.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912516383367.csv</t>
+          <t>ZM_stims-16504778687086635.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912516813226.csv</t>
+          <t>MM_stims-16504778687396648.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912516673226.csv</t>
+          <t>ZM_stims-16504778687246654.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912517293212.csv</t>
+          <t>vSAT_stims-16504778687856622.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912517623222.csv</t>
+          <t>SAT_stims-1650477868743691.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912517133224.csv</t>
+          <t>SAT_stims-16504778687556887.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912516883223.csv</t>
+          <t>vSAT_stims-16504778687706985.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_36/participant_36_task_orders.xlsx
+++ b/participants/participant_36/participant_36_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778668283727" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778686756663" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778686816652" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778687406635" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778688016996" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961603928454" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961629381833" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961629381833" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961630022187" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-165099616306623" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778667873728.csv</t>
+          <t>go_stims-16509961603608534.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477866811456.csv</t>
+          <t>GNG_stims-1650996160376845.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778668133724.csv</t>
+          <t>go_stims-1650996160376845.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778668273969.csv</t>
+          <t>GNG_stims-16509961603928454.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1650477868305665.csv</t>
+          <t>ZB-match_2-16509961607541826.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_7-16504778672984045.csv</t>
+          <t>ZB-match_9-16509961606341898.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_0-16504778672113698.csv</t>
+          <t>TB-1650996162114223.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504778673300564.csv</t>
+          <t>OB-16509961615942233.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504778686586974.csv</t>
+          <t>TB-16509961629141808.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_5-16504778669234076.csv</t>
+          <t>OB-1650996160866185.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16504778675333512.csv</t>
+          <t>OB-16509961616182225.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1650477868121696.csv</t>
+          <t>ZB-match_5-16509961604488792.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16504778680686617.csv</t>
+          <t>TB-16509961620742216.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778687076976.csv</t>
+          <t>MM_stims-1650996162970221.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477868684666.csv</t>
+          <t>ZM_stims-16509961629461992.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778687236981.csv</t>
+          <t>MM_stims-1650996162986222.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778687086635.csv</t>
+          <t>ZM_stims-1650996162970221.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778687396648.csv</t>
+          <t>MM_stims-16509961630022187.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778687246654.csv</t>
+          <t>ZM_stims-1650996162986222.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778687856622.csv</t>
+          <t>vSAT_stims-1650996163034219.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477868743691.csv</t>
+          <t>SAT_stims-16509961630181842.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778687556887.csv</t>
+          <t>vSAT_stims-16509961630502174.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778687706985.csv</t>
+          <t>SAT_stims-16509961630022187.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_36/participant_36_task_orders.xlsx
+++ b/participants/participant_36/participant_36_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961603928454" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961629381833" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961629381833" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961630022187" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-165099616306623" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687609378588" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651168765139821" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687651413836" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687652014022" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687652879" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961603608534.csv</t>
+          <t>go_stims-1651168760906989.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996160376845.csv</t>
+          <t>GNG_stims-16511687609217362.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650996160376845.csv</t>
+          <t>go_stims-1651168760922737.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961603928454.csv</t>
+          <t>GNG_stims-16511687609368596.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_2-16509961607541826.csv</t>
+          <t>ZB-match_6-16511687615548983.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_9-16509961606341898.csv</t>
+          <t>OB-16511687628757625.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1650996162114223.csv</t>
+          <t>OB-16511687624972637.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16509961615942233.csv</t>
+          <t>TB-16511687650675337.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509961629141808.csv</t>
+          <t>TB-16511687651216717.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1650996160866185.csv</t>
+          <t>ZB-match_5-16511687616140127.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16509961616182225.csv</t>
+          <t>OB-16511687622322848.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509961604488792.csv</t>
+          <t>TB-16511687636134322.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16509961620742216.csv</t>
+          <t>ZB-match_7-16511687613688402.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650996162970221.csv</t>
+          <t>MM_stims-16511687651569788.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961629461992.csv</t>
+          <t>ZM_stims-16511687651443772.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650996162986222.csv</t>
+          <t>MM_stims-16511687651872.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996162970221.csv</t>
+          <t>ZM_stims-16511687651579666.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961630022187.csv</t>
+          <t>MM_stims-16511687652003956.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996162986222.csv</t>
+          <t>ZM_stims-16511687651872.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650996163034219.csv</t>
+          <t>vSAT_stims-16511687652400582.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961630181842.csv</t>
+          <t>SAT_stims-16511687652248745.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961630502174.csv</t>
+          <t>vSAT_stims-16511687652730813.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961630022187.csv</t>
+          <t>SAT_stims-16511687652084358.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_36/participant_36_task_orders.xlsx
+++ b/participants/participant_36/participant_36_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687609378588" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651168765139821" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687651413836" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687652014022" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687652879" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555862088292" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555888672953" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555888743057" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651255588931411" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651255589007733" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168760906989.csv</t>
+          <t>go_stims-16512555861668358.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687609217362.csv</t>
+          <t>GNG_stims-16512555861918302.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651168760922737.csv</t>
+          <t>go_stims-1651255586193826.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687609368596.csv</t>
+          <t>GNG_stims-1651255586207827.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_6-16511687615548983.csv</t>
+          <t>ZB-match_4-16512555866974907.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16511687628757625.csv</t>
+          <t>TB-16512555874864936.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16511687624972637.csv</t>
+          <t>OB-16512555873224885.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16511687650675337.csv</t>
+          <t>OB-16512555868754902.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16511687651216717.csv</t>
+          <t>ZB-match_4-1651255586235833.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511687616140127.csv</t>
+          <t>TB-1651255588852296.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16511687622322848.csv</t>
+          <t>TB-16512555876914897.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16511687636134322.csv</t>
+          <t>ZB-match_1-1651255586572489.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_7-16511687613688402.csv</t>
+          <t>OB-16512555871144881.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687651569788.csv</t>
+          <t>MM_stims-16512555888995714.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687651443772.csv</t>
+          <t>ZM_stims-16512555888782966.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687651872.csv</t>
+          <t>MM_stims-16512555889151974.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687651579666.csv</t>
+          <t>ZM_stims-16512555888995714.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687652003956.csv</t>
+          <t>MM_stims-16512555889304163.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687651872.csv</t>
+          <t>ZM_stims-16512555889151974.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687652400582.csv</t>
+          <t>vSAT_stims-1651255588969415.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687652248745.csv</t>
+          <t>SAT_stims-16512555889532733.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687652730813.csv</t>
+          <t>SAT_stims-16512555889408152.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687652084358.csv</t>
+          <t>vSAT_stims-1651255588992604.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_36/participant_36_task_orders.xlsx
+++ b/participants/participant_36/participant_36_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555862088292" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555888672953" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555888743057" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651255588931411" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651255589007733" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NB_TO-1651589019224096" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-16515890192709715" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="vSAT_TO-16515890193334723" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-16515890193334723" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GNG_TO-16515890193647213" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555861668358.csv</t>
+          <t>TB-16515890188581567.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555861918302.csv</t>
+          <t>OB-1651589017942814.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651255586193826.csv</t>
+          <t>ZB-match_9-16515890174383495.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255586207827.csv</t>
+          <t>TB-16515890191928487.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OB-16515890177531264.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZB-match_3-16515890174539745.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ZB-match_3-16515890172065299.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OB-16515890182106678.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TB-16515890187622979.csv</t>
         </is>
       </c>
     </row>
@@ -495,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +566,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_4-16512555866974907.csv</t>
+          <t>MM_stims-16515890192397597.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +576,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16512555874864936.csv</t>
+          <t>ZM_stims-1651589019224096.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +586,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16512555873224885.csv</t>
+          <t>MM_stims-1651589019255347.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16512555868754902.csv</t>
+          <t>ZM_stims-16515890192397597.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_4-1651255586235833.csv</t>
+          <t>MM_stims-16515890192709715.csv</t>
         </is>
       </c>
     </row>
@@ -566,37 +616,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1651255588852296.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TB-16512555876914897.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ZB-match_1-1651255586572489.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>OB-16512555871144881.csv</t>
+          <t>ZM_stims-1651589019255347.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +626,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515890192709715.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515890192865949.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515890193178465.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>vSAT_stims-1651589019302222.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,92 +729,6 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555888995714.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555888782966.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555889151974.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555888995714.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555889304163.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555889151974.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255588969415.csv</t>
+          <t>go_stims-16515890193334723.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555889532733.csv</t>
+          <t>GNG_stims-16515890193490965.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555889408152.csv</t>
+          <t>go_stims-16515890193490965.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255588992604.csv</t>
+          <t>GNG_stims-16515890193647213.csv</t>
         </is>
       </c>
     </row>
